--- a/data/trans_orig/P42-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P42-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06736C98-E55C-4E66-84E1-5EB9083C2746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53FB3EAE-53CD-49C4-9716-C6CA8CB7AE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{726B8D54-D7C3-4F14-88B9-7E4C8821DCD9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{420246FC-2C28-4927-B31B-6D18D6204A10}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="225">
   <si>
     <t>Población según si ha acudido alguna vez al ginecólogo en 2007 (Tasa respuesta: 50,44%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>78,94%</t>
   </si>
   <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>21,06%</t>
   </si>
   <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>81,63%</t>
   </si>
   <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
   </si>
   <si>
     <t>18,37%</t>
   </si>
   <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -128,19 +128,19 @@
     <t>76,0%</t>
   </si>
   <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
   </si>
   <si>
     <t>24,0%</t>
   </si>
   <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -149,19 +149,19 @@
     <t>76,43%</t>
   </si>
   <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
   </si>
   <si>
     <t>23,57%</t>
   </si>
   <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -170,19 +170,19 @@
     <t>73,37%</t>
   </si>
   <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
   </si>
   <si>
     <t>26,63%</t>
   </si>
   <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -191,19 +191,13 @@
     <t>73,66%</t>
   </si>
   <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
+    <t>68,01%</t>
   </si>
   <si>
     <t>26,34%</t>
   </si>
   <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
+    <t>31,99%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -212,19 +206,19 @@
     <t>83,72%</t>
   </si>
   <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
   </si>
   <si>
     <t>16,28%</t>
   </si>
   <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -233,352 +227,334 @@
     <t>79,82%</t>
   </si>
   <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
   </si>
   <si>
     <t>20,18%</t>
   </si>
   <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
   </si>
   <si>
     <t>79,11%</t>
   </si>
   <si>
-    <t>77,69%</t>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha acudido alguna vez al ginecólogo en 2012 (Tasa respuesta: 50,38%)</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>Población según si ha acudido alguna vez al ginecólogo en 2015 (Tasa respuesta: 50,43%)</t>
+  </si>
+  <si>
+    <t>85,03%</t>
   </si>
   <si>
     <t>80,5%</t>
   </si>
   <si>
-    <t>20,89%</t>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
   </si>
   <si>
     <t>19,5%</t>
   </si>
   <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha acudido alguna vez al ginecólogo en 2012 (Tasa respuesta: 50,38%)</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
   </si>
   <si>
     <t>89,22%</t>
   </si>
   <si>
-    <t>14,64%</t>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
   </si>
   <si>
     <t>10,78%</t>
   </si>
   <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>Población según si ha acudido alguna vez al ginecólogo en 2015 (Tasa respuesta: 50,43%)</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
     <t>89,58%</t>
   </si>
   <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
   </si>
   <si>
     <t>10,42%</t>
   </si>
   <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
   </si>
   <si>
     <t>87,19%</t>
   </si>
   <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
+    <t>88,28%</t>
   </si>
   <si>
     <t>12,81%</t>
   </si>
   <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
+    <t>11,72%</t>
   </si>
   <si>
     <t>Población según si ha acudido alguna vez al ginecólogo en 2023 (Tasa respuesta: 46,07%)</t>
@@ -587,163 +563,157 @@
     <t>94,69%</t>
   </si>
   <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
   </si>
   <si>
     <t>5,31%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
   </si>
   <si>
     <t>90,41%</t>
   </si>
   <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
   </si>
   <si>
     <t>9,59%</t>
   </si>
   <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
   </si>
   <si>
     <t>80,1%</t>
   </si>
   <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
   </si>
   <si>
     <t>19,9%</t>
   </si>
   <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
   </si>
   <si>
     <t>89,5%</t>
   </si>
   <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
   </si>
   <si>
     <t>10,5%</t>
   </si>
   <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
   </si>
   <si>
     <t>85,72%</t>
   </si>
   <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
   </si>
   <si>
     <t>14,28%</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
   </si>
   <si>
     <t>70,61%</t>
   </si>
   <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
   </si>
   <si>
     <t>29,39%</t>
   </si>
   <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
   </si>
   <si>
     <t>70,89%</t>
   </si>
   <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
   </si>
   <si>
     <t>29,11%</t>
   </si>
   <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
   </si>
   <si>
     <t>76,83%</t>
   </si>
   <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
   </si>
   <si>
     <t>23,17%</t>
   </si>
   <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
   </si>
   <si>
     <t>80,51%</t>
   </si>
   <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
+    <t>84,18%</t>
   </si>
   <si>
     <t>19,49%</t>
   </si>
   <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
+    <t>15,82%</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D82F10-0B2E-4D56-9583-17778912ABAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CC799C-32A4-41CB-A436-E9C410DFB1B6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2043,7 +2013,7 @@
         <v>50</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="M19" s="7">
         <v>196</v>
@@ -2058,7 +2028,7 @@
         <v>50</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,13 +2056,13 @@
         <v>72948</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M20" s="7">
         <v>73</v>
@@ -2101,13 +2071,13 @@
         <v>72948</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2161,7 +2131,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2186,13 +2156,13 @@
         <v>534297</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M22" s="7">
         <v>519</v>
@@ -2201,13 +2171,13 @@
         <v>534297</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,13 +2205,13 @@
         <v>103922</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M23" s="7">
         <v>102</v>
@@ -2250,13 +2220,13 @@
         <v>103922</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2310,7 +2280,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2335,13 +2305,13 @@
         <v>621731</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M25" s="7">
         <v>590</v>
@@ -2350,13 +2320,13 @@
         <v>621731</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,13 +2354,13 @@
         <v>157232</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M26" s="7">
         <v>151</v>
@@ -2399,13 +2369,13 @@
         <v>157232</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,13 +2454,13 @@
         <v>2661356</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M28" s="7">
         <v>2584</v>
@@ -2499,13 +2469,13 @@
         <v>2661356</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,13 +2503,13 @@
         <v>702743</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M29" s="7">
         <v>700</v>
@@ -2548,13 +2518,13 @@
         <v>702743</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,7 +2578,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2632,7 +2602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA84178E-1374-461E-8F0A-56D11901FC7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555D9763-C5F2-40C6-AB7E-95770EF27DD5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2649,7 +2619,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2906,13 +2876,13 @@
         <v>474163</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M7" s="7">
         <v>434</v>
@@ -2921,13 +2891,13 @@
         <v>474163</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,13 +2925,13 @@
         <v>48610</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M8" s="7">
         <v>45</v>
@@ -2970,13 +2940,13 @@
         <v>48610</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3025,13 @@
         <v>290219</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M10" s="7">
         <v>268</v>
@@ -3070,13 +3040,13 @@
         <v>290219</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,13 +3074,13 @@
         <v>49759</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M11" s="7">
         <v>48</v>
@@ -3119,13 +3089,13 @@
         <v>49759</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,13 +3174,13 @@
         <v>578877</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>535</v>
@@ -3219,13 +3189,13 @@
         <v>578877</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,13 +3223,13 @@
         <v>93218</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>88</v>
@@ -3268,13 +3238,13 @@
         <v>93218</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,13 +3323,13 @@
         <v>188207</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>181</v>
@@ -3368,13 +3338,13 @@
         <v>188207</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,13 +3372,13 @@
         <v>31384</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>31</v>
@@ -3417,13 +3387,13 @@
         <v>31384</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3472,13 @@
         <v>241176</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>231</v>
@@ -3517,13 +3487,13 @@
         <v>241176</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,13 +3521,13 @@
         <v>38855</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>38</v>
@@ -3566,13 +3536,13 @@
         <v>38855</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,7 +3596,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3651,13 +3621,13 @@
         <v>619193</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M22" s="7">
         <v>563</v>
@@ -3666,13 +3636,13 @@
         <v>619193</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,13 +3670,13 @@
         <v>71521</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M23" s="7">
         <v>70</v>
@@ -3715,13 +3685,13 @@
         <v>71521</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,7 +3745,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3800,13 +3770,13 @@
         <v>691366</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M25" s="7">
         <v>635</v>
@@ -3815,13 +3785,13 @@
         <v>691366</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3819,13 @@
         <v>120646</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M26" s="7">
         <v>111</v>
@@ -3864,13 +3834,13 @@
         <v>120646</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3919,13 @@
         <v>3083200</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M28" s="7">
         <v>2847</v>
@@ -3964,13 +3934,13 @@
         <v>3083200</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,13 +3968,13 @@
         <v>453993</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M29" s="7">
         <v>431</v>
@@ -4013,13 +3983,13 @@
         <v>453993</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,7 +4043,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -4097,7 +4067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C83A14C-657B-4C91-A118-5A0CB32EDA4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074661BF-DB51-48DA-B997-1C3DCC9B1BBF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4114,7 +4084,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4234,13 +4204,13 @@
         <v>239486</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>229</v>
@@ -4249,13 +4219,13 @@
         <v>239486</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,13 +4253,13 @@
         <v>42168</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -4298,13 +4268,13 @@
         <v>42168</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,13 +4353,13 @@
         <v>437523</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M7" s="7">
         <v>409</v>
@@ -4398,13 +4368,13 @@
         <v>437523</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4402,13 @@
         <v>81696</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M8" s="7">
         <v>72</v>
@@ -4447,13 +4417,13 @@
         <v>81696</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4532,13 +4502,13 @@
         <v>289659</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="M10" s="7">
         <v>285</v>
@@ -4547,13 +4517,13 @@
         <v>289659</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,13 +4551,13 @@
         <v>44656</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>45</v>
@@ -4596,13 +4566,13 @@
         <v>44656</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,13 +4651,13 @@
         <v>327054</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M13" s="7">
         <v>301</v>
@@ -4696,13 +4666,13 @@
         <v>327054</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,13 +4700,13 @@
         <v>59305</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M14" s="7">
         <v>56</v>
@@ -4745,13 +4715,13 @@
         <v>59305</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,13 +4800,13 @@
         <v>195122</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="M16" s="7">
         <v>198</v>
@@ -4845,13 +4815,13 @@
         <v>195122</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,13 +4849,13 @@
         <v>22597</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -4894,13 +4864,13 @@
         <v>22597</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +4949,13 @@
         <v>214730</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="M19" s="7">
         <v>205</v>
@@ -4994,13 +4964,13 @@
         <v>214730</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +4998,13 @@
         <v>58385</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="M20" s="7">
         <v>58</v>
@@ -5043,13 +5013,13 @@
         <v>58385</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,7 +5073,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5128,13 +5098,13 @@
         <v>628556</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>587</v>
@@ -5143,13 +5113,13 @@
         <v>628556</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,13 +5147,13 @@
         <v>56294</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M23" s="7">
         <v>53</v>
@@ -5192,13 +5162,13 @@
         <v>56294</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5252,7 +5222,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5277,13 +5247,13 @@
         <v>734423</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>668</v>
@@ -5292,13 +5262,13 @@
         <v>734423</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,13 +5296,13 @@
         <v>85440</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M26" s="7">
         <v>81</v>
@@ -5341,13 +5311,13 @@
         <v>85440</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5396,13 @@
         <v>3066553</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>2882</v>
@@ -5441,13 +5411,13 @@
         <v>3066553</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,13 +5445,13 @@
         <v>450541</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="M29" s="7">
         <v>431</v>
@@ -5490,13 +5460,13 @@
         <v>450541</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,7 +5520,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -5574,7 +5544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D280F9-7F0E-4D5E-BE41-3B01BE9D7A1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD0016D-3549-4AA3-B126-161DE69B11CB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5591,7 +5561,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5711,13 +5681,13 @@
         <v>165276</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="M4" s="7">
         <v>336</v>
@@ -5726,13 +5696,13 @@
         <v>165276</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,13 +5730,13 @@
         <v>9270</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -5775,13 +5745,13 @@
         <v>9270</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,13 +5830,13 @@
         <v>395334</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>520</v>
@@ -5875,13 +5845,13 @@
         <v>395334</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5909,13 +5879,13 @@
         <v>41932</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="M8" s="7">
         <v>46</v>
@@ -5924,13 +5894,13 @@
         <v>41932</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +5979,13 @@
         <v>215442</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>328</v>
@@ -6024,13 +5994,13 @@
         <v>215442</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6058,13 +6028,13 @@
         <v>53510</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>57</v>
@@ -6073,13 +6043,13 @@
         <v>53510</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,13 +6128,13 @@
         <v>296144</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="M13" s="7">
         <v>424</v>
@@ -6173,13 +6143,13 @@
         <v>296144</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6207,13 +6177,13 @@
         <v>34758</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
@@ -6222,13 +6192,13 @@
         <v>34758</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,13 +6277,13 @@
         <v>144847</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="M16" s="7">
         <v>324</v>
@@ -6322,13 +6292,13 @@
         <v>144847</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6356,13 +6326,13 @@
         <v>24126</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -6371,13 +6341,13 @@
         <v>24126</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6456,13 +6426,13 @@
         <v>158702</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="M19" s="7">
         <v>288</v>
@@ -6471,13 +6441,13 @@
         <v>158702</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6505,13 +6475,13 @@
         <v>66043</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="M20" s="7">
         <v>91</v>
@@ -6520,13 +6490,13 @@
         <v>66043</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6580,7 +6550,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6605,13 +6575,13 @@
         <v>424019</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M22" s="7">
         <v>599</v>
@@ -6620,13 +6590,13 @@
         <v>424019</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6654,13 +6624,13 @@
         <v>174129</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="M23" s="7">
         <v>72</v>
@@ -6669,13 +6639,13 @@
         <v>174129</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6729,7 +6699,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6754,13 +6724,13 @@
         <v>538941</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="M25" s="7">
         <v>701</v>
@@ -6769,13 +6739,13 @@
         <v>538941</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6803,13 +6773,13 @@
         <v>162564</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="M26" s="7">
         <v>151</v>
@@ -6818,13 +6788,13 @@
         <v>162564</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6903,13 +6873,13 @@
         <v>2338704</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="M28" s="7">
         <v>3520</v>
@@ -6918,13 +6888,13 @@
         <v>2338704</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6952,13 +6922,13 @@
         <v>566332</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="M29" s="7">
         <v>508</v>
@@ -6967,13 +6937,13 @@
         <v>566332</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7027,7 +6997,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P42-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P42-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53FB3EAE-53CD-49C4-9716-C6CA8CB7AE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DD25807-6056-42B2-9B82-62EDB95A5617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{420246FC-2C28-4927-B31B-6D18D6204A10}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{187BE9D9-0456-49E8-BF49-8A6D51D9B3DC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="231">
   <si>
     <t>Población según si ha acudido alguna vez al ginecólogo en 2007 (Tasa respuesta: 50,44%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>78,94%</t>
   </si>
   <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>21,06%</t>
   </si>
   <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>81,63%</t>
   </si>
   <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
   </si>
   <si>
     <t>18,37%</t>
   </si>
   <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -128,19 +128,19 @@
     <t>76,0%</t>
   </si>
   <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
   </si>
   <si>
     <t>24,0%</t>
   </si>
   <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -149,19 +149,19 @@
     <t>76,43%</t>
   </si>
   <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
   </si>
   <si>
     <t>23,57%</t>
   </si>
   <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -170,19 +170,19 @@
     <t>73,37%</t>
   </si>
   <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
   </si>
   <si>
     <t>26,63%</t>
   </si>
   <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -191,13 +191,19 @@
     <t>73,66%</t>
   </si>
   <si>
-    <t>68,01%</t>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
   </si>
   <si>
     <t>26,34%</t>
   </si>
   <si>
-    <t>31,99%</t>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -206,355 +212,373 @@
     <t>83,72%</t>
   </si>
   <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha acudido alguna vez al ginecólogo en 2012 (Tasa respuesta: 50,38%)</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>Población según si ha acudido alguna vez al ginecólogo en 2016 (Tasa respuesta: 50,43%)</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
     <t>80,83%</t>
   </si>
   <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
   </si>
   <si>
     <t>19,17%</t>
   </si>
   <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha acudido alguna vez al ginecólogo en 2012 (Tasa respuesta: 50,38%)</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>Población según si ha acudido alguna vez al ginecólogo en 2015 (Tasa respuesta: 50,43%)</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
     <t>89,62%</t>
   </si>
   <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
   </si>
   <si>
     <t>10,38%</t>
   </si>
   <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
   </si>
   <si>
     <t>78,62%</t>
   </si>
   <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
   </si>
   <si>
     <t>21,38%</t>
   </si>
   <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
   </si>
   <si>
     <t>91,78%</t>
   </si>
   <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
   </si>
   <si>
     <t>8,22%</t>
   </si>
   <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
   </si>
   <si>
     <t>89,58%</t>
   </si>
   <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
   </si>
   <si>
     <t>10,42%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
   </si>
   <si>
     <t>87,19%</t>
   </si>
   <si>
-    <t>88,28%</t>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
   </si>
   <si>
     <t>12,81%</t>
   </si>
   <si>
-    <t>11,72%</t>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
   </si>
   <si>
     <t>Población según si ha acudido alguna vez al ginecólogo en 2023 (Tasa respuesta: 46,07%)</t>
@@ -620,13 +644,7 @@
     <t>84,24%</t>
   </si>
   <si>
-    <t>93,65%</t>
-  </si>
-  <si>
     <t>10,5%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
   </si>
   <si>
     <t>15,76%</t>
@@ -1125,7 +1143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CC799C-32A4-41CB-A436-E9C410DFB1B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4649C8-8EDA-4578-8142-5AB82157035D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2013,7 +2031,7 @@
         <v>50</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="M19" s="7">
         <v>196</v>
@@ -2028,7 +2046,7 @@
         <v>50</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2056,13 +2074,13 @@
         <v>72948</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M20" s="7">
         <v>73</v>
@@ -2071,13 +2089,13 @@
         <v>72948</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,7 +2149,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2156,13 +2174,13 @@
         <v>534297</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M22" s="7">
         <v>519</v>
@@ -2171,13 +2189,13 @@
         <v>534297</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2205,13 +2223,13 @@
         <v>103922</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M23" s="7">
         <v>102</v>
@@ -2220,13 +2238,13 @@
         <v>103922</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,7 +2298,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2305,13 +2323,13 @@
         <v>621731</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M25" s="7">
         <v>590</v>
@@ -2320,13 +2338,13 @@
         <v>621731</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,13 +2372,13 @@
         <v>157232</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M26" s="7">
         <v>151</v>
@@ -2369,13 +2387,13 @@
         <v>157232</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,13 +2472,13 @@
         <v>2661356</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M28" s="7">
         <v>2584</v>
@@ -2469,13 +2487,13 @@
         <v>2661356</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,13 +2521,13 @@
         <v>702743</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M29" s="7">
         <v>700</v>
@@ -2518,13 +2536,13 @@
         <v>702743</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2578,7 +2596,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2602,7 +2620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555D9763-C5F2-40C6-AB7E-95770EF27DD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0B1FC1-1596-4966-A4E3-6A4E002F097D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2619,7 +2637,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2876,13 +2894,13 @@
         <v>474163</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M7" s="7">
         <v>434</v>
@@ -2891,13 +2909,13 @@
         <v>474163</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,13 +2943,13 @@
         <v>48610</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M8" s="7">
         <v>45</v>
@@ -2940,13 +2958,13 @@
         <v>48610</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,13 +3043,13 @@
         <v>290219</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M10" s="7">
         <v>268</v>
@@ -3040,13 +3058,13 @@
         <v>290219</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,13 +3092,13 @@
         <v>49759</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M11" s="7">
         <v>48</v>
@@ -3089,13 +3107,13 @@
         <v>49759</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,13 +3192,13 @@
         <v>578877</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>535</v>
@@ -3189,13 +3207,13 @@
         <v>578877</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,13 +3241,13 @@
         <v>93218</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>88</v>
@@ -3238,13 +3256,13 @@
         <v>93218</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,13 +3341,13 @@
         <v>188207</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>181</v>
@@ -3338,13 +3356,13 @@
         <v>188207</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,13 +3390,13 @@
         <v>31384</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>31</v>
@@ -3387,13 +3405,13 @@
         <v>31384</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3490,13 @@
         <v>241176</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>231</v>
@@ -3487,13 +3505,13 @@
         <v>241176</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,13 +3539,13 @@
         <v>38855</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>38</v>
@@ -3536,13 +3554,13 @@
         <v>38855</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,7 +3614,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3621,13 +3639,13 @@
         <v>619193</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M22" s="7">
         <v>563</v>
@@ -3636,13 +3654,13 @@
         <v>619193</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,13 +3688,13 @@
         <v>71521</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M23" s="7">
         <v>70</v>
@@ -3685,13 +3703,13 @@
         <v>71521</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,7 +3763,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3770,13 +3788,13 @@
         <v>691366</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M25" s="7">
         <v>635</v>
@@ -3785,13 +3803,13 @@
         <v>691366</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,13 +3837,13 @@
         <v>120646</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M26" s="7">
         <v>111</v>
@@ -3834,13 +3852,13 @@
         <v>120646</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,13 +3937,13 @@
         <v>3083200</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M28" s="7">
         <v>2847</v>
@@ -3934,13 +3952,13 @@
         <v>3083200</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,13 +3986,13 @@
         <v>453993</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M29" s="7">
         <v>431</v>
@@ -3983,13 +4001,13 @@
         <v>453993</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,7 +4061,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4067,7 +4085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074661BF-DB51-48DA-B997-1C3DCC9B1BBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2ABC965-1C6A-4CF4-A088-256388055A67}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4084,7 +4102,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4204,13 +4222,13 @@
         <v>239486</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>229</v>
@@ -4219,13 +4237,13 @@
         <v>239486</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4271,13 @@
         <v>42168</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -4268,13 +4286,13 @@
         <v>42168</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4353,13 +4371,13 @@
         <v>437523</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M7" s="7">
         <v>409</v>
@@ -4368,13 +4386,13 @@
         <v>437523</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,13 +4420,13 @@
         <v>81696</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M8" s="7">
         <v>72</v>
@@ -4417,13 +4435,13 @@
         <v>81696</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4502,13 +4520,13 @@
         <v>289659</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M10" s="7">
         <v>285</v>
@@ -4517,13 +4535,13 @@
         <v>289659</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4569,13 @@
         <v>44656</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="M11" s="7">
         <v>45</v>
@@ -4566,13 +4584,13 @@
         <v>44656</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,13 +4669,13 @@
         <v>327054</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>301</v>
@@ -4666,13 +4684,13 @@
         <v>327054</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,13 +4718,13 @@
         <v>59305</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M14" s="7">
         <v>56</v>
@@ -4715,13 +4733,13 @@
         <v>59305</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,13 +4818,13 @@
         <v>195122</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>198</v>
@@ -4815,13 +4833,13 @@
         <v>195122</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,13 +4867,13 @@
         <v>22597</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -4864,13 +4882,13 @@
         <v>22597</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4967,13 @@
         <v>214730</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M19" s="7">
         <v>205</v>
@@ -4964,13 +4982,13 @@
         <v>214730</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,13 +5016,13 @@
         <v>58385</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="M20" s="7">
         <v>58</v>
@@ -5013,13 +5031,13 @@
         <v>58385</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,7 +5091,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5098,13 +5116,13 @@
         <v>628556</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M22" s="7">
         <v>587</v>
@@ -5113,13 +5131,13 @@
         <v>628556</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,13 +5165,13 @@
         <v>56294</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M23" s="7">
         <v>53</v>
@@ -5162,13 +5180,13 @@
         <v>56294</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5222,7 +5240,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5247,13 +5265,13 @@
         <v>734423</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>668</v>
@@ -5262,13 +5280,13 @@
         <v>734423</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,13 +5314,13 @@
         <v>85440</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>81</v>
@@ -5311,13 +5329,13 @@
         <v>85440</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,13 +5414,13 @@
         <v>3066553</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="M28" s="7">
         <v>2882</v>
@@ -5411,13 +5429,13 @@
         <v>3066553</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,13 +5463,13 @@
         <v>450541</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>102</v>
+        <v>179</v>
       </c>
       <c r="M29" s="7">
         <v>431</v>
@@ -5460,13 +5478,13 @@
         <v>450541</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>102</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,7 +5538,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -5544,7 +5562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD0016D-3549-4AA3-B126-161DE69B11CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60997067-D748-4CA3-991D-6BBAD1CBDB60}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5561,7 +5579,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5681,13 +5699,13 @@
         <v>165276</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
         <v>336</v>
@@ -5696,13 +5714,13 @@
         <v>165276</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,13 +5748,13 @@
         <v>9270</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -5745,13 +5763,13 @@
         <v>9270</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5848,13 @@
         <v>395334</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="M7" s="7">
         <v>520</v>
@@ -5845,13 +5863,13 @@
         <v>395334</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5879,13 +5897,13 @@
         <v>41932</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>46</v>
@@ -5894,13 +5912,13 @@
         <v>41932</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,13 +5997,13 @@
         <v>215442</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>328</v>
@@ -5994,13 +6012,13 @@
         <v>215442</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6028,13 +6046,13 @@
         <v>53510</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="M11" s="7">
         <v>57</v>
@@ -6043,13 +6061,13 @@
         <v>53510</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6128,13 +6146,13 @@
         <v>296144</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7">
         <v>424</v>
@@ -6143,13 +6161,13 @@
         <v>296144</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,13 +6195,13 @@
         <v>34758</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
@@ -6192,13 +6210,13 @@
         <v>34758</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6295,13 @@
         <v>144847</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M16" s="7">
         <v>324</v>
@@ -6292,13 +6310,13 @@
         <v>144847</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6326,13 +6344,13 @@
         <v>24126</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -6341,13 +6359,13 @@
         <v>24126</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,13 +6444,13 @@
         <v>158702</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M19" s="7">
         <v>288</v>
@@ -6441,13 +6459,13 @@
         <v>158702</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6475,13 +6493,13 @@
         <v>66043</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M20" s="7">
         <v>91</v>
@@ -6490,13 +6508,13 @@
         <v>66043</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,7 +6568,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6575,13 +6593,13 @@
         <v>424019</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M22" s="7">
         <v>599</v>
@@ -6590,13 +6608,13 @@
         <v>424019</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6624,13 +6642,13 @@
         <v>174129</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M23" s="7">
         <v>72</v>
@@ -6639,13 +6657,13 @@
         <v>174129</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6699,7 +6717,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6724,13 +6742,13 @@
         <v>538941</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="M25" s="7">
         <v>701</v>
@@ -6739,13 +6757,13 @@
         <v>538941</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6773,13 +6791,13 @@
         <v>162564</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M26" s="7">
         <v>151</v>
@@ -6788,13 +6806,13 @@
         <v>162564</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6873,13 +6891,13 @@
         <v>2338704</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M28" s="7">
         <v>3520</v>
@@ -6888,13 +6906,13 @@
         <v>2338704</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6922,13 +6940,13 @@
         <v>566332</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="M29" s="7">
         <v>508</v>
@@ -6937,13 +6955,13 @@
         <v>566332</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6997,7 +7015,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P42-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P42-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DD25807-6056-42B2-9B82-62EDB95A5617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DEA5658-9556-4CD9-8B23-B69994995827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{187BE9D9-0456-49E8-BF49-8A6D51D9B3DC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FB968E67-7D84-4E1B-BEA1-7E32CCB73408}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="235">
   <si>
     <t>Población según si ha acudido alguna vez al ginecólogo en 2007 (Tasa respuesta: 50,44%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -80,10 +80,10 @@
     <t>78,94%</t>
   </si>
   <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>21,06%</t>
   </si>
   <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>81,63%</t>
   </si>
   <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
   </si>
   <si>
     <t>18,37%</t>
   </si>
   <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -128,19 +128,19 @@
     <t>76,0%</t>
   </si>
   <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
   </si>
   <si>
     <t>24,0%</t>
   </si>
   <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -149,19 +149,19 @@
     <t>76,43%</t>
   </si>
   <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
   </si>
   <si>
     <t>23,57%</t>
   </si>
   <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -170,19 +170,19 @@
     <t>73,37%</t>
   </si>
   <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
   </si>
   <si>
     <t>26,63%</t>
   </si>
   <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -191,19 +191,19 @@
     <t>73,66%</t>
   </si>
   <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
   </si>
   <si>
     <t>26,34%</t>
   </si>
   <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -212,19 +212,19 @@
     <t>83,72%</t>
   </si>
   <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
   </si>
   <si>
     <t>16,28%</t>
   </si>
   <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -233,37 +233,37 @@
     <t>79,82%</t>
   </si>
   <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
   </si>
   <si>
     <t>20,18%</t>
   </si>
   <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
   </si>
   <si>
     <t>79,11%</t>
   </si>
   <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
   </si>
   <si>
     <t>20,89%</t>
   </si>
   <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -275,7 +275,7 @@
     <t>90,7%</t>
   </si>
   <si>
-    <t>87,79%</t>
+    <t>87,78%</t>
   </si>
   <si>
     <t>92,97%</t>
@@ -287,451 +287,463 @@
     <t>7,03%</t>
   </si>
   <si>
-    <t>12,21%</t>
+    <t>12,22%</t>
   </si>
   <si>
     <t>85,36%</t>
   </si>
   <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
   </si>
   <si>
     <t>14,64%</t>
   </si>
   <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
   </si>
   <si>
     <t>86,13%</t>
   </si>
   <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
   </si>
   <si>
     <t>13,87%</t>
   </si>
   <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
   </si>
   <si>
     <t>85,71%</t>
   </si>
   <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
   </si>
   <si>
     <t>14,29%</t>
   </si>
   <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
   </si>
   <si>
     <t>86,12%</t>
   </si>
   <si>
-    <t>81,6%</t>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>Población según si ha acudido alguna vez al ginecólogo en 2016 (Tasa respuesta: 50,43%)</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>Población según si ha acudido alguna vez al ginecólogo en 2023 (Tasa respuesta: 46,07%)</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
   </si>
   <si>
     <t>90,23%</t>
   </si>
   <si>
-    <t>13,88%</t>
+    <t>14,28%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>Población según si ha acudido alguna vez al ginecólogo en 2016 (Tasa respuesta: 50,43%)</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>Población según si ha acudido alguna vez al ginecólogo en 2023 (Tasa respuesta: 46,07%)</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
+    <t>20,1%</t>
   </si>
   <si>
     <t>70,61%</t>
   </si>
   <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
   </si>
   <si>
     <t>29,39%</t>
   </si>
   <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
   </si>
   <si>
     <t>70,89%</t>
   </si>
   <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
   </si>
   <si>
     <t>29,11%</t>
   </si>
   <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
   </si>
   <si>
     <t>76,83%</t>
   </si>
   <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
   </si>
   <si>
     <t>23,17%</t>
   </si>
   <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
   </si>
   <si>
     <t>80,51%</t>
   </si>
   <si>
-    <t>84,18%</t>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
   </si>
   <si>
     <t>19,49%</t>
   </si>
   <si>
-    <t>15,82%</t>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4649C8-8EDA-4578-8142-5AB82157035D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E29A9F-7641-4DC4-8005-B2BB8858D757}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2620,7 +2632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0B1FC1-1596-4966-A4E3-6A4E002F097D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D19448-7006-4B75-B783-0AEE4CDB0987}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4085,7 +4097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2ABC965-1C6A-4CF4-A088-256388055A67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A3EC9B-832A-4A13-8D4B-EFD7458CD863}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5562,7 +5574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60997067-D748-4CA3-991D-6BBAD1CBDB60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05A2FB2-569B-4E86-9D53-9C2D617DB741}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6152,7 +6164,7 @@
         <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>424</v>
@@ -6167,7 +6179,7 @@
         <v>200</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,13 +6207,13 @@
         <v>34758</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
@@ -6210,13 +6222,13 @@
         <v>34758</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6307,13 @@
         <v>144847</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M16" s="7">
         <v>324</v>
@@ -6310,13 +6322,13 @@
         <v>144847</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,13 +6356,13 @@
         <v>24126</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -6359,13 +6371,13 @@
         <v>24126</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,13 +6456,13 @@
         <v>158702</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M19" s="7">
         <v>288</v>
@@ -6459,13 +6471,13 @@
         <v>158702</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6493,13 +6505,13 @@
         <v>66043</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M20" s="7">
         <v>91</v>
@@ -6508,13 +6520,13 @@
         <v>66043</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,13 +6605,13 @@
         <v>424019</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M22" s="7">
         <v>599</v>
@@ -6608,13 +6620,13 @@
         <v>424019</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6642,13 +6654,13 @@
         <v>174129</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M23" s="7">
         <v>72</v>
@@ -6657,13 +6669,13 @@
         <v>174129</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6742,13 +6754,13 @@
         <v>538941</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M25" s="7">
         <v>701</v>
@@ -6757,13 +6769,13 @@
         <v>538941</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6791,13 +6803,13 @@
         <v>162564</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M26" s="7">
         <v>151</v>
@@ -6806,13 +6818,13 @@
         <v>162564</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6891,13 +6903,13 @@
         <v>2338704</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M28" s="7">
         <v>3520</v>
@@ -6906,13 +6918,13 @@
         <v>2338704</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6940,13 +6952,13 @@
         <v>566332</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="M29" s="7">
         <v>508</v>
@@ -6955,13 +6967,13 @@
         <v>566332</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P42-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P42-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DEA5658-9556-4CD9-8B23-B69994995827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA8DB121-67D5-44C6-8BCB-B3FEE1F07F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FB968E67-7D84-4E1B-BEA1-7E32CCB73408}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{80A30A7B-5B42-42E8-918E-C46BA3115B84}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="239">
   <si>
     <t>Población según si ha acudido alguna vez al ginecólogo en 2007 (Tasa respuesta: 50,44%)</t>
   </si>
@@ -272,6 +272,24 @@
     <t>Población según si ha acudido alguna vez al ginecólogo en 2012 (Tasa respuesta: 50,38%)</t>
   </si>
   <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
     <t>90,7%</t>
   </si>
   <si>
@@ -308,22 +326,22 @@
     <t>18,61%</t>
   </si>
   <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
   </si>
   <si>
     <t>85,71%</t>
@@ -584,166 +602,160 @@
     <t>Población según si ha acudido alguna vez al ginecólogo en 2023 (Tasa respuesta: 46,07%)</t>
   </si>
   <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E29A9F-7641-4DC4-8005-B2BB8858D757}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CF23B3-4E62-4A97-A6AB-20F6EA17CB38}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2632,7 +2644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D19448-7006-4B75-B783-0AEE4CDB0987}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCCC891-4598-4A7D-ABCB-CB06E054A61A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2763,30 +2775,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>222</v>
+      </c>
+      <c r="I4" s="7">
+        <v>250891</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>222</v>
+      </c>
+      <c r="N4" s="7">
+        <v>250891</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,30 +2824,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="I5" s="7">
+        <v>33230</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="N5" s="7">
+        <v>33230</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,30 +2873,34 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>253</v>
+      </c>
+      <c r="I6" s="7">
+        <v>284121</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>253</v>
+      </c>
+      <c r="N6" s="7">
+        <v>284121</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2930,13 @@
         <v>474163</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M7" s="7">
         <v>434</v>
@@ -2921,13 +2945,13 @@
         <v>474163</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,13 +2979,13 @@
         <v>48610</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M8" s="7">
         <v>45</v>
@@ -2970,13 +2994,13 @@
         <v>48610</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3079,13 @@
         <v>290219</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M10" s="7">
         <v>268</v>
@@ -3070,13 +3094,13 @@
         <v>290219</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,13 +3128,13 @@
         <v>49759</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M11" s="7">
         <v>48</v>
@@ -3119,13 +3143,13 @@
         <v>49759</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,34 +3222,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>535</v>
+        <v>313</v>
       </c>
       <c r="I13" s="7">
-        <v>578877</v>
+        <v>327986</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M13" s="7">
-        <v>535</v>
+        <v>313</v>
       </c>
       <c r="N13" s="7">
-        <v>578877</v>
+        <v>327986</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,34 +3271,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="I14" s="7">
-        <v>93218</v>
+        <v>59988</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="N14" s="7">
-        <v>93218</v>
+        <v>59988</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,10 +3320,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>623</v>
+        <v>370</v>
       </c>
       <c r="I15" s="7">
-        <v>672095</v>
+        <v>387974</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3311,10 +3335,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>623</v>
+        <v>370</v>
       </c>
       <c r="N15" s="7">
-        <v>672095</v>
+        <v>387974</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3353,13 +3377,13 @@
         <v>188207</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>181</v>
@@ -3368,13 +3392,13 @@
         <v>188207</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,13 +3426,13 @@
         <v>31384</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>31</v>
@@ -3417,13 +3441,13 @@
         <v>31384</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3526,13 @@
         <v>241176</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>231</v>
@@ -3517,13 +3541,13 @@
         <v>241176</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,13 +3575,13 @@
         <v>38855</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>38</v>
@@ -3566,13 +3590,13 @@
         <v>38855</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3675,13 @@
         <v>619193</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>563</v>
@@ -3666,13 +3690,13 @@
         <v>619193</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,13 +3724,13 @@
         <v>71521</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M23" s="7">
         <v>70</v>
@@ -3715,13 +3739,13 @@
         <v>71521</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +3824,13 @@
         <v>691366</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="M25" s="7">
         <v>635</v>
@@ -3815,13 +3839,13 @@
         <v>691366</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3873,13 @@
         <v>120646</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M26" s="7">
         <v>111</v>
@@ -3864,13 +3888,13 @@
         <v>120646</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3973,13 @@
         <v>3083200</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="M28" s="7">
         <v>2847</v>
@@ -3964,13 +3988,13 @@
         <v>3083200</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,13 +4022,13 @@
         <v>453993</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M29" s="7">
         <v>431</v>
@@ -4013,13 +4037,13 @@
         <v>453993</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,7 +4121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A3EC9B-832A-4A13-8D4B-EFD7458CD863}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A82940-8ECD-46B8-9E9B-9AFF97C04D3A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4114,7 +4138,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4234,13 +4258,13 @@
         <v>239486</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="M4" s="7">
         <v>229</v>
@@ -4249,13 +4273,13 @@
         <v>239486</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,13 +4307,13 @@
         <v>42168</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -4298,13 +4322,13 @@
         <v>42168</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,13 +4407,13 @@
         <v>437523</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M7" s="7">
         <v>409</v>
@@ -4398,13 +4422,13 @@
         <v>437523</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4456,13 @@
         <v>81696</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="M8" s="7">
         <v>72</v>
@@ -4447,13 +4471,13 @@
         <v>81696</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4532,13 +4556,13 @@
         <v>289659</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M10" s="7">
         <v>285</v>
@@ -4547,13 +4571,13 @@
         <v>289659</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,13 +4605,13 @@
         <v>44656</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M11" s="7">
         <v>45</v>
@@ -4596,13 +4620,13 @@
         <v>44656</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,13 +4705,13 @@
         <v>327054</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M13" s="7">
         <v>301</v>
@@ -4696,13 +4720,13 @@
         <v>327054</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,13 +4754,13 @@
         <v>59305</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>56</v>
@@ -4745,13 +4769,13 @@
         <v>59305</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,13 +4854,13 @@
         <v>195122</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M16" s="7">
         <v>198</v>
@@ -4845,13 +4869,13 @@
         <v>195122</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,13 +4903,13 @@
         <v>22597</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -4894,13 +4918,13 @@
         <v>22597</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +5003,13 @@
         <v>214730</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M19" s="7">
         <v>205</v>
@@ -4994,13 +5018,13 @@
         <v>214730</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5052,13 @@
         <v>58385</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M20" s="7">
         <v>58</v>
@@ -5043,13 +5067,13 @@
         <v>58385</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,13 +5152,13 @@
         <v>628556</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M22" s="7">
         <v>587</v>
@@ -5143,13 +5167,13 @@
         <v>628556</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,13 +5201,13 @@
         <v>56294</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="M23" s="7">
         <v>53</v>
@@ -5192,13 +5216,13 @@
         <v>56294</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,13 +5301,13 @@
         <v>734423</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>668</v>
@@ -5292,13 +5316,13 @@
         <v>734423</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,13 +5350,13 @@
         <v>85440</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>81</v>
@@ -5341,13 +5365,13 @@
         <v>85440</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,31 +5447,31 @@
         <v>2882</v>
       </c>
       <c r="I28" s="7">
-        <v>3066553</v>
+        <v>3066554</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M28" s="7">
         <v>2882</v>
       </c>
       <c r="N28" s="7">
-        <v>3066553</v>
+        <v>3066554</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,13 +5499,13 @@
         <v>450541</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M29" s="7">
         <v>431</v>
@@ -5490,13 +5514,13 @@
         <v>450541</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,7 +5545,7 @@
         <v>3313</v>
       </c>
       <c r="I30" s="7">
-        <v>3517094</v>
+        <v>3517095</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>19</v>
@@ -5536,7 +5560,7 @@
         <v>3313</v>
       </c>
       <c r="N30" s="7">
-        <v>3517094</v>
+        <v>3517095</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -5574,7 +5598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05A2FB2-569B-4E86-9D53-9C2D617DB741}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6E2C84-791F-4D68-AFA6-EFFC054B2B88}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5591,7 +5615,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5708,31 +5732,31 @@
         <v>336</v>
       </c>
       <c r="I4" s="7">
-        <v>165276</v>
+        <v>174526</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M4" s="7">
         <v>336</v>
       </c>
       <c r="N4" s="7">
-        <v>165276</v>
+        <v>174526</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,31 +5781,31 @@
         <v>13</v>
       </c>
       <c r="I5" s="7">
-        <v>9270</v>
+        <v>11687</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
       </c>
       <c r="N5" s="7">
-        <v>9270</v>
+        <v>11687</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,7 +5830,7 @@
         <v>349</v>
       </c>
       <c r="I6" s="7">
-        <v>174546</v>
+        <v>186213</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -5821,7 +5845,7 @@
         <v>349</v>
       </c>
       <c r="N6" s="7">
-        <v>174546</v>
+        <v>186213</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -5857,31 +5881,31 @@
         <v>520</v>
       </c>
       <c r="I7" s="7">
-        <v>395334</v>
+        <v>367710</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="M7" s="7">
         <v>520</v>
       </c>
       <c r="N7" s="7">
-        <v>395334</v>
+        <v>367710</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,31 +5930,31 @@
         <v>46</v>
       </c>
       <c r="I8" s="7">
-        <v>41932</v>
+        <v>38444</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M8" s="7">
         <v>46</v>
       </c>
       <c r="N8" s="7">
-        <v>41932</v>
+        <v>38444</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5955,7 +5979,7 @@
         <v>566</v>
       </c>
       <c r="I9" s="7">
-        <v>437266</v>
+        <v>406154</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -5970,7 +5994,7 @@
         <v>566</v>
       </c>
       <c r="N9" s="7">
-        <v>437266</v>
+        <v>406154</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -6006,31 +6030,31 @@
         <v>328</v>
       </c>
       <c r="I10" s="7">
-        <v>215442</v>
+        <v>201294</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>328</v>
       </c>
       <c r="N10" s="7">
-        <v>215442</v>
+        <v>201294</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,31 +6079,31 @@
         <v>57</v>
       </c>
       <c r="I11" s="7">
-        <v>53510</v>
+        <v>49870</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>57</v>
       </c>
       <c r="N11" s="7">
-        <v>53510</v>
+        <v>49870</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,7 +6128,7 @@
         <v>385</v>
       </c>
       <c r="I12" s="7">
-        <v>268952</v>
+        <v>251164</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -6119,7 +6143,7 @@
         <v>385</v>
       </c>
       <c r="N12" s="7">
-        <v>268952</v>
+        <v>251164</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -6155,31 +6179,31 @@
         <v>424</v>
       </c>
       <c r="I13" s="7">
-        <v>296144</v>
+        <v>353337</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="M13" s="7">
         <v>424</v>
       </c>
       <c r="N13" s="7">
-        <v>296144</v>
+        <v>353337</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6204,31 +6228,31 @@
         <v>37</v>
       </c>
       <c r="I14" s="7">
-        <v>34758</v>
+        <v>31920</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
       </c>
       <c r="N14" s="7">
-        <v>34758</v>
+        <v>31920</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,7 +6277,7 @@
         <v>461</v>
       </c>
       <c r="I15" s="7">
-        <v>330902</v>
+        <v>385257</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -6268,7 +6292,7 @@
         <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>330902</v>
+        <v>385257</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -6304,31 +6328,31 @@
         <v>324</v>
       </c>
       <c r="I16" s="7">
-        <v>144847</v>
+        <v>131587</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M16" s="7">
         <v>324</v>
       </c>
       <c r="N16" s="7">
-        <v>144847</v>
+        <v>131587</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6353,31 +6377,31 @@
         <v>41</v>
       </c>
       <c r="I17" s="7">
-        <v>24126</v>
+        <v>20671</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
       </c>
       <c r="N17" s="7">
-        <v>24126</v>
+        <v>20671</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,7 +6426,7 @@
         <v>365</v>
       </c>
       <c r="I18" s="7">
-        <v>168973</v>
+        <v>152258</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -6417,7 +6441,7 @@
         <v>365</v>
       </c>
       <c r="N18" s="7">
-        <v>168973</v>
+        <v>152258</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -6453,31 +6477,31 @@
         <v>288</v>
       </c>
       <c r="I19" s="7">
-        <v>158702</v>
+        <v>147981</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>213</v>
+        <v>28</v>
       </c>
       <c r="M19" s="7">
         <v>288</v>
       </c>
       <c r="N19" s="7">
-        <v>158702</v>
+        <v>147981</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>213</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6502,31 +6526,31 @@
         <v>91</v>
       </c>
       <c r="I20" s="7">
-        <v>66043</v>
+        <v>61843</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>215</v>
+        <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M20" s="7">
         <v>91</v>
       </c>
       <c r="N20" s="7">
-        <v>66043</v>
+        <v>61843</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>215</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,7 +6575,7 @@
         <v>379</v>
       </c>
       <c r="I21" s="7">
-        <v>224745</v>
+        <v>209824</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -6566,7 +6590,7 @@
         <v>379</v>
       </c>
       <c r="N21" s="7">
-        <v>224745</v>
+        <v>209824</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -6602,31 +6626,31 @@
         <v>599</v>
       </c>
       <c r="I22" s="7">
-        <v>424019</v>
+        <v>393933</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M22" s="7">
         <v>599</v>
       </c>
       <c r="N22" s="7">
-        <v>424019</v>
+        <v>393933</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6651,31 +6675,31 @@
         <v>72</v>
       </c>
       <c r="I23" s="7">
-        <v>174129</v>
+        <v>263279</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M23" s="7">
         <v>72</v>
       </c>
       <c r="N23" s="7">
-        <v>174129</v>
+        <v>263279</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,7 +6724,7 @@
         <v>671</v>
       </c>
       <c r="I24" s="7">
-        <v>598148</v>
+        <v>657212</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>19</v>
@@ -6715,7 +6739,7 @@
         <v>671</v>
       </c>
       <c r="N24" s="7">
-        <v>598148</v>
+        <v>657212</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -6751,31 +6775,31 @@
         <v>701</v>
       </c>
       <c r="I25" s="7">
-        <v>538941</v>
+        <v>449745</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M25" s="7">
         <v>701</v>
       </c>
       <c r="N25" s="7">
-        <v>538941</v>
+        <v>449745</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6800,31 +6824,31 @@
         <v>151</v>
       </c>
       <c r="I26" s="7">
-        <v>162564</v>
+        <v>128472</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M26" s="7">
         <v>151</v>
       </c>
       <c r="N26" s="7">
-        <v>162564</v>
+        <v>128472</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6849,7 +6873,7 @@
         <v>852</v>
       </c>
       <c r="I27" s="7">
-        <v>701505</v>
+        <v>578217</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>19</v>
@@ -6864,7 +6888,7 @@
         <v>852</v>
       </c>
       <c r="N27" s="7">
-        <v>701505</v>
+        <v>578217</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -6900,31 +6924,31 @@
         <v>3520</v>
       </c>
       <c r="I28" s="7">
-        <v>2338704</v>
+        <v>2220114</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M28" s="7">
         <v>3520</v>
       </c>
       <c r="N28" s="7">
-        <v>2338704</v>
+        <v>2220114</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6949,31 +6973,31 @@
         <v>508</v>
       </c>
       <c r="I29" s="7">
-        <v>566332</v>
+        <v>606184</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M29" s="7">
         <v>508</v>
       </c>
       <c r="N29" s="7">
-        <v>566332</v>
+        <v>606184</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6998,7 +7022,7 @@
         <v>4028</v>
       </c>
       <c r="I30" s="7">
-        <v>2905036</v>
+        <v>2826298</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>19</v>
@@ -7013,7 +7037,7 @@
         <v>4028</v>
       </c>
       <c r="N30" s="7">
-        <v>2905036</v>
+        <v>2826298</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
